--- a/calc_rules.xlsx
+++ b/calc_rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\Joh\OasisLMF\oasislmf\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\Joh\OasisLMF_branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627DC94A-08DF-47E1-8802-72C4A3D27E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9325D4-7D45-4ABE-A7AB-33EB8476FB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="calc_rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">calc_rules!$A$1:$M$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">calc_rules!$A$1:$M$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>desc</t>
   </si>
@@ -77,18 +77,12 @@
     <t>deductible and limit</t>
   </si>
   <si>
-    <t>deductible; limit; attachment and share</t>
-  </si>
-  <si>
     <t>franchise deductible and limit</t>
   </si>
   <si>
     <t>deductible % TIV and limit</t>
   </si>
   <si>
-    <t>deductible % loss with limit</t>
-  </si>
-  <si>
     <t>deductible % TIV; no limit</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>no deductible % TIV; limit and min. deductible</t>
   </si>
   <si>
-    <t>deductible % TIV with limit</t>
-  </si>
-  <si>
     <t>no deductible or limit; max. deductible</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>deductible % loss; limit; attachment and share</t>
   </si>
   <si>
-    <t>deductible % tiv; limit; attachment and share</t>
-  </si>
-  <si>
     <t>deductible % loss with min. and max. deductible; no limit</t>
   </si>
   <si>
@@ -260,54 +248,12 @@
     <t>reverse franchise deductible; no limit % TIV</t>
   </si>
   <si>
-    <t>deductible % tiv with min. and max. deductible; no limit</t>
-  </si>
-  <si>
-    <t>deductible % tiv with min. and max. deductible; no limit % loss</t>
-  </si>
-  <si>
-    <t>deductible % tiv with min. and max. deductible; no limit % TIV</t>
-  </si>
-  <si>
-    <t>pass through</t>
-  </si>
-  <si>
-    <t>pass through; ded_type 2</t>
-  </si>
-  <si>
-    <t>layer level: limit and share but no attachment</t>
-  </si>
-  <si>
-    <t>layer level: limit and share and attachment</t>
-  </si>
-  <si>
-    <t>pass through; ded_type 1</t>
-  </si>
-  <si>
-    <t>pass through; limit_type 2</t>
-  </si>
-  <si>
-    <t>pass through; limit_type 2 ded_type 2</t>
-  </si>
-  <si>
-    <t>pass through; limit_type 2 ded_type 1</t>
-  </si>
-  <si>
     <t>deductible % loss with max. deductible; no limit % loss</t>
   </si>
   <si>
     <t>deductible % loss with max. deductible; no limit % TIV</t>
   </si>
   <si>
-    <t>deductible % tiv with max. deductible; no limit</t>
-  </si>
-  <si>
-    <t>deductible % tiv with max. deductible; no limit % loss</t>
-  </si>
-  <si>
-    <t>deductible % tiv with max. deductible; no limit % TIV</t>
-  </si>
-  <si>
     <t>deductible % loss with max. deductible; no limit</t>
   </si>
   <si>
@@ -336,6 +282,171 @@
   </si>
   <si>
     <t>deductible with min deductible, no limit % TIV</t>
+  </si>
+  <si>
+    <t>no deductible; limit % TIV</t>
+  </si>
+  <si>
+    <t>no deductible % loss; limit % TIV</t>
+  </si>
+  <si>
+    <t>no deductible % TIV; limit % TIV</t>
+  </si>
+  <si>
+    <t>deductible % loss; limit</t>
+  </si>
+  <si>
+    <t>no deductible; limit % TIV and min. deductible</t>
+  </si>
+  <si>
+    <t>no deductible % loss; limit % TIV and min. deductible</t>
+  </si>
+  <si>
+    <t>no deductible % TIV; limit % TIV and min. deductible</t>
+  </si>
+  <si>
+    <t>no deductible, no attachment, limit and share</t>
+  </si>
+  <si>
+    <t>no deductible % TIV, no attachment, limit and share</t>
+  </si>
+  <si>
+    <t>no deductible, attachment, limit and share</t>
+  </si>
+  <si>
+    <t>no deductible % TIV, attachment, limit and share</t>
+  </si>
+  <si>
+    <t>deductible, no attachment, limit and share</t>
+  </si>
+  <si>
+    <t>deductible % TIV, no attachment, limit and share</t>
+  </si>
+  <si>
+    <t>deductible, attachment, limit and share</t>
+  </si>
+  <si>
+    <t>deductible % TIV, attachment, limit and share</t>
+  </si>
+  <si>
+    <t>franchise deductible % TIV and limit</t>
+  </si>
+  <si>
+    <t>franchise deductible and limit % TIV</t>
+  </si>
+  <si>
+    <t>deductible % loss with limit % loss</t>
+  </si>
+  <si>
+    <t>no deductible % loss; limit % TIV and max. deductible</t>
+  </si>
+  <si>
+    <t>no deductible; limit % TIV and max. deductible</t>
+  </si>
+  <si>
+    <t>no deductible % TIV; limit % TIV and max. deductible</t>
+  </si>
+  <si>
+    <t>deductible % loss; limit % TIV; attachment and share</t>
+  </si>
+  <si>
+    <t>deductible % loss; limit; no attachment and share</t>
+  </si>
+  <si>
+    <t>deductible % loss; limit % TIV; no attachment and share</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>deductible % loss with min. deductible; no limit</t>
+  </si>
+  <si>
+    <t>deductible % loss with min. deductible; no limit % loss</t>
+  </si>
+  <si>
+    <t>deductible % loss with min. deductible; no limit % TIV</t>
+  </si>
+  <si>
+    <t>pass through; no deductible % loss</t>
+  </si>
+  <si>
+    <t>pass through; no deductible % loss, no limit % loss</t>
+  </si>
+  <si>
+    <t>pass through; no deductible, no limit</t>
+  </si>
+  <si>
+    <t>pass through; no limit % loss</t>
+  </si>
+  <si>
+    <t>deductible % TIV with min. and max. deductible; no limit</t>
+  </si>
+  <si>
+    <t>deductible % TIV with min. and max. deductible; no limit % loss</t>
+  </si>
+  <si>
+    <t>deductible % TIV with min. and max. deductible; no limit % TIV</t>
+  </si>
+  <si>
+    <t>deductible % TIV with max. deductible; no limit</t>
+  </si>
+  <si>
+    <t>deductible % TIV with max. deductible; no limit % loss</t>
+  </si>
+  <si>
+    <t>deductible % TIV with max. deductible; no limit % TIV</t>
+  </si>
+  <si>
+    <t>deductible % TIV with min. deductible; no limit</t>
+  </si>
+  <si>
+    <t>deductible % TIV with min. deductible; no limit % loss</t>
+  </si>
+  <si>
+    <t>deductible % TIV with min. deductible; no limit % TIV</t>
+  </si>
+  <si>
+    <t>pass through; no deductible % TIV</t>
+  </si>
+  <si>
+    <t>pass through; no limit % TIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass through; no deductible % TIV, no limit % TIV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass through; no deductible % loss, no limit % TIV </t>
+  </si>
+  <si>
+    <t>pass through; no deductible % TIV, no limit % loss</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>no deductible, no attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>no deductible % TIV, no attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>no deductible, attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>no deductible % TIV, attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>deductible, no attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>deductible % TIV, no attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>deductible, attachment, no limit and share</t>
+  </si>
+  <si>
+    <t>deductible % TIV, attachment, no limit and share</t>
   </si>
 </sst>
 </file>
@@ -1176,13 +1287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:M89"/>
+      <selection pane="bottomRight" sqref="A1:M124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1321,7 @@
     <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1361,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1289,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <f>"("&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;")"</f>
+        <f t="shared" ref="M2:M38" si="0">"("&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;G2&amp;", "&amp;H2&amp;", "&amp;I2&amp;", "&amp;J2&amp;", "&amp;K2&amp;", "&amp;L2&amp;")"</f>
         <v>(1, 0, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1313,13 +1427,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1331,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">"("&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;K3&amp;", "&amp;L3&amp;")"</f>
-        <v>(1, 0, 0, 1, 1, 1, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>(1, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1355,7 +1469,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1364,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1374,18 +1488,18 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 1, 0, 0, 0, 2, 0, 0)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(0, 0, 0, 1, 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1397,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1416,18 +1530,18 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(0, 0, 0, 1, 1, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1439,37 +1553,37 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 1, 0, 0, 1, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(0, 0, 0, 1, 1, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1478,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1500,15 +1614,15 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 2, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(0, 0, 0, 1, 1, 1, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1520,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1535,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 2, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1, 0, 0, 1, 1, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1562,1255 +1676,1255 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 2, 0, 2, 0)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>(1, 0, 0, 1, 1, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f>"("&amp;C10&amp;", "&amp;D10&amp;", "&amp;E10&amp;", "&amp;F10&amp;", "&amp;G10&amp;", "&amp;H10&amp;", "&amp;I10&amp;", "&amp;J10&amp;", "&amp;K10&amp;", "&amp;L10&amp;")"</f>
+        <v>(1, 0, 0, 1, 1, 1, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 0, 0, 1, 1, 1, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 0, 0, 1, 0, 0, 0, 2, 0, 0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13:M14" si="1">"("&amp;C13&amp;", "&amp;D13&amp;", "&amp;E13&amp;", "&amp;F13&amp;", "&amp;G13&amp;", "&amp;H13&amp;", "&amp;I13&amp;", "&amp;J13&amp;", "&amp;K13&amp;", "&amp;L13&amp;")"</f>
+        <v>(1, 0, 0, 1, 0, 0, 2, 2, 0, 0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>(1, 0, 0, 1, 0, 0, 0, 2, 2, 0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>(1, 0, 0, 1, 0, 0, 1, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="str">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="str">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="str">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ref="M19:M21" si="2">"("&amp;C19&amp;", "&amp;D19&amp;", "&amp;E19&amp;", "&amp;F19&amp;", "&amp;G19&amp;", "&amp;H19&amp;", "&amp;I19&amp;", "&amp;J19&amp;", "&amp;K19&amp;", "&amp;L19&amp;")"</f>
+        <v>(0, 0, 1, 1, 0, 0, 0, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>(0, 0, 1, 1, 0, 0, 1, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>(0, 0, 1, 1, 0, 0, 2, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="str">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="0"/>
         <v>(0, 1, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="str">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="0"/>
         <v>(0, 1, 0, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="str">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
         <v>(0, 1, 0, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="str">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>(1, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>(0, 1, 0, 1, 0, 0, 0, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>(0, 1, 0, 1, 0, 0, 1, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>(0, 1, 0, 1, 0, 0, 2, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="str">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
         <v>10</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="str">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
         <v>10</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="str">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
         <v>10</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="str">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
         <v>10</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="str">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="str">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
         <v>10</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="str">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
         <v>10</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="str">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="str">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
         <f t="shared" si="0"/>
         <v>(0, 0, 1, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
         <v>11</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="str">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
         <f t="shared" si="0"/>
         <v>(0, 1, 0, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
         <v>11</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="str">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="str">
         <f t="shared" si="0"/>
         <v>(0, 1, 0, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 0, 0, 2, 0)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 1, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 1, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 1, 0, 2, 0)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 2, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 2, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 0, 0, 0, 0, 2, 0, 2, 0)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 0, 0, 1, 0)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 0, 0, 2, 0)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 0, 0, 0, 0)</v>
-      </c>
-    </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2819,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2837,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 0, 0, 1, 0)</v>
+        <f t="shared" ref="M39:M70" si="3">"("&amp;C39&amp;", "&amp;D39&amp;", "&amp;E39&amp;", "&amp;F39&amp;", "&amp;G39&amp;", "&amp;H39&amp;", "&amp;I39&amp;", "&amp;J39&amp;", "&amp;K39&amp;", "&amp;L39&amp;")"</f>
+        <v>(0, 1, 0, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2861,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2873,28 +2987,28 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 0, 0, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2903,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2921,22 +3035,22 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2945,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2963,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 1, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2987,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2999,28 +3113,28 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 1, 0, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 0, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3029,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -3047,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 2, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 0, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3071,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -3089,31 +3203,31 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 2, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 0, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -3131,25 +3245,25 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 1, 1, 0, 0, 0, 2, 0, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3158,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3167,31 +3281,31 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 0, 0, 1, 0, 0, 0, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3200,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3209,31 +3323,31 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 0, 0, 1, 0, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3242,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3251,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3263,19 +3377,19 @@
         <v>0</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3284,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3305,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 0, 0, 1, 0, 0, 0, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3326,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3335,40 +3449,40 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 0, 0, 1, 0, 0, 1, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -3377,37 +3491,37 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="0"/>
-        <v>(0, 0, 0, 1, 0, 0, 2, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3419,37 +3533,37 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3461,37 +3575,37 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 1, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3509,37 +3623,37 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 1, 0, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3551,67 +3665,67 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 1, 1, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 1, 1, 0, 2, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3629,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3641,19 +3755,19 @@
         <v>0</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 1, 1, 0, 0, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3671,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3683,19 +3797,19 @@
         <v>0</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 1, 1, 0, 0, 0, 1, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3713,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3725,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 1, 1, 0, 0, 0, 1, 0, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 1, 1, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3746,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3758,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3767,19 +3881,19 @@
         <v>0</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 0, 99, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3788,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3797,31 +3911,31 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 0, 99, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3830,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3839,40 +3953,40 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 0, 0, 0, 0, 0, 0, 99, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3881,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 1, 1, 0, 0, 0, 2, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3923,40 +4037,40 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 1, 1, 0, 0, 0, 2, 0, 1, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B66">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3977,16 +4091,16 @@
         <v>0</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="0"/>
-        <v>(1, 1, 1, 0, 0, 0, 2, 0, 2, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B67">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3998,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4013,22 +4127,22 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M75" si="1">"("&amp;C67&amp;", "&amp;D67&amp;", "&amp;E67&amp;", "&amp;F67&amp;", "&amp;G67&amp;", "&amp;H67&amp;", "&amp;I67&amp;", "&amp;J67&amp;", "&amp;K67&amp;", "&amp;L67&amp;")"</f>
-        <v>(0, 0, 0, 0, 0, 0, 0, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 0, 0, 1, 0)</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4040,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4049,28 +4163,28 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="1"/>
-        <v>(0, 0, 0, 0, 0, 0, 2, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4082,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4091,31 +4205,31 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ref="M69:M71" si="2">"("&amp;C69&amp;", "&amp;D69&amp;", "&amp;E69&amp;", "&amp;F69&amp;", "&amp;G69&amp;", "&amp;H69&amp;", "&amp;I69&amp;", "&amp;J69&amp;", "&amp;K69&amp;", "&amp;L69&amp;")"</f>
-        <v>(0, 0, 0, 0, 0, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(0, 0, 0, 1, 0, 0, 2, 0, 1, 0)</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B70">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4133,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -4145,19 +4259,19 @@
         <v>0</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="2"/>
-        <v>(0, 0, 0, 0, 0, 0, 0, 2, 0, 0)</v>
+        <f t="shared" si="3"/>
+        <v>(1, 0, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B71">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4175,31 +4289,31 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="2"/>
-        <v>(0, 0, 0, 0, 0, 0, 2, 2, 0, 0)</v>
+        <f t="shared" ref="M71:M111" si="4">"("&amp;C71&amp;", "&amp;D71&amp;", "&amp;E71&amp;", "&amp;F71&amp;", "&amp;G71&amp;", "&amp;H71&amp;", "&amp;I71&amp;", "&amp;J71&amp;", "&amp;K71&amp;", "&amp;L71&amp;")"</f>
+        <v>(1, 0, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B72">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4220,28 +4334,28 @@
         <v>1</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" ref="M72" si="3">"("&amp;C72&amp;", "&amp;D72&amp;", "&amp;E72&amp;", "&amp;F72&amp;", "&amp;G72&amp;", "&amp;H72&amp;", "&amp;I72&amp;", "&amp;J72&amp;", "&amp;K72&amp;", "&amp;L72&amp;")"</f>
-        <v>(0, 0, 0, 0, 0, 0, 1, 2, 0, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4256,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4271,19 +4385,19 @@
         <v>0</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="1"/>
-        <v>(0, 0, 0, 1, 1, 0, 0, 0, 0, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 1, 1, 1, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4298,10 +4412,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4313,16 +4427,16 @@
         <v>0</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="1"/>
-        <v>(0, 0, 0, 1, 1, 1, 0, 0, 0, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 1, 1, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B75">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4331,16 +4445,16 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -4349,22 +4463,22 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="1"/>
-        <v>(1, 0, 1, 0, 0, 0, 1, 0, 0, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 1, 1, 1, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4373,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4391,22 +4505,22 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" ref="M76:M80" si="4">"("&amp;C76&amp;", "&amp;D76&amp;", "&amp;E76&amp;", "&amp;F76&amp;", "&amp;G76&amp;", "&amp;H76&amp;", "&amp;I76&amp;", "&amp;J76&amp;", "&amp;K76&amp;", "&amp;L76&amp;")"</f>
-        <v>(1, 0, 1, 0, 0, 0, 1, 0, 1, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 1, 1, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4415,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4433,28 +4547,28 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="4"/>
-        <v>(1, 0, 1, 0, 0, 0, 1, 0, 2, 0)</v>
+        <v>(1, 0, 0, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4469,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4482,21 +4596,21 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="4"/>
-        <v>(1, 0, 1, 0, 0, 0, 2, 0, 0, 0)</v>
+        <v>(1, 1, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B79">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4511,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4524,21 +4638,21 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="4"/>
-        <v>(1, 0, 1, 0, 0, 0, 2, 0, 1, 0)</v>
+        <v>(1, 1, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B80">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4553,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4566,15 +4680,15 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="4"/>
-        <v>(1, 0, 1, 0, 0, 0, 2, 0, 2, 0)</v>
+        <v>(1, 1, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B81">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4595,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4607,16 +4721,16 @@
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" ref="M81:M86" si="5">"("&amp;C81&amp;", "&amp;D81&amp;", "&amp;E81&amp;", "&amp;F81&amp;", "&amp;G81&amp;", "&amp;H81&amp;", "&amp;I81&amp;", "&amp;J81&amp;", "&amp;K81&amp;", "&amp;L81&amp;")"</f>
-        <v>(1, 0, 1, 0, 0, 0, 0, 0, 0, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4637,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4649,16 +4763,16 @@
         <v>0</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="5"/>
-        <v>(1, 0, 1, 0, 0, 0, 0, 0, 1, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4679,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4691,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="5"/>
-        <v>(1, 0, 1, 0, 0, 0, 0, 0, 2, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4709,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4721,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4733,16 +4847,16 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="5"/>
-        <v>(1, 1, 1, 0, 0, 0, 0, 0, 0, 0)</v>
+        <f t="shared" ref="M84:M86" si="5">"("&amp;C84&amp;", "&amp;D84&amp;", "&amp;E84&amp;", "&amp;F84&amp;", "&amp;G84&amp;", "&amp;H84&amp;", "&amp;I84&amp;", "&amp;J84&amp;", "&amp;K84&amp;", "&amp;L84&amp;")"</f>
+        <v>(1, 1, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4751,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -4763,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4776,15 +4890,15 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="5"/>
-        <v>(1, 1, 1, 0, 0, 0, 0, 0, 1, 0)</v>
+        <v>(1, 1, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4793,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4805,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4818,21 +4932,21 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="5"/>
-        <v>(1, 1, 1, 0, 0, 0, 0, 0, 2, 0)</v>
+        <v>(1, 1, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B87">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4850,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4859,41 +4973,41 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" ref="M87:M89" si="6">"("&amp;C87&amp;", "&amp;D87&amp;", "&amp;E87&amp;", "&amp;F87&amp;", "&amp;G87&amp;", "&amp;H87&amp;", "&amp;I87&amp;", "&amp;J87&amp;", "&amp;K87&amp;", "&amp;L87&amp;")"</f>
-        <v>(1, 1, 0, 0, 0, 0, 0, 0, 0, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 0, 0, 0, 0, 99, 0, 0)</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>99</v>
       </c>
-      <c r="B88">
-        <v>26</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
       <c r="K88">
         <v>1</v>
       </c>
@@ -4901,53 +5015,1555 @@
         <v>0</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="6"/>
-        <v>(1, 1, 0, 0, 0, 0, 0, 0, 1, 0)</v>
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 0, 0, 0, 0, 99, 1, 0)</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>99</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 0, 0, 0, 0, 0, 99, 2, 0)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90">
+        <v>26</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 1, 0, 0, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 1, 0, 0, 0, 2, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 1, 0, 0, 0, 2, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 2, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 2, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" ref="M96:M98" si="6">"("&amp;C96&amp;", "&amp;D96&amp;", "&amp;E96&amp;", "&amp;F96&amp;", "&amp;G96&amp;", "&amp;H96&amp;", "&amp;I96&amp;", "&amp;J96&amp;", "&amp;K96&amp;", "&amp;L96&amp;")"</f>
+        <v>(1, 1, 0, 0, 0, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97">
+        <v>26</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="6"/>
+        <v>(1, 1, 0, 0, 0, 0, 2, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="6"/>
+        <v>(1, 1, 0, 0, 0, 0, 2, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99">
+        <v>26</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 0, 1, 0, 0, 0, 0, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102">
+        <v>26</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 1, 0, 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103">
+        <v>26</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 1, 0, 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104">
+        <v>26</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 1, 0, 0, 0, 0, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105">
+        <v>26</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 0, 0, 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106">
+        <v>26</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 0, 0, 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="4"/>
+        <v>(1, 1, 0, 0, 0, 0, 0, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
         <v>100</v>
       </c>
-      <c r="B89">
-        <v>26</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>2</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" t="str">
-        <f t="shared" si="6"/>
-        <v>(1, 1, 0, 0, 0, 0, 0, 0, 2, 0)</v>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="4"/>
+        <v>(0, 0, 0, 0, 0, 0, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="4"/>
+        <v>(0, 0, 0, 0, 0, 0, 2, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>100</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="4"/>
+        <v>(0, 0, 0, 0, 0, 0, 1, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="4"/>
+        <v>(0, 0, 0, 0, 0, 0, 0, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112">
+        <v>100</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" ref="M112:M113" si="7">"("&amp;C112&amp;", "&amp;D112&amp;", "&amp;E112&amp;", "&amp;F112&amp;", "&amp;G112&amp;", "&amp;H112&amp;", "&amp;I112&amp;", "&amp;J112&amp;", "&amp;K112&amp;", "&amp;L112&amp;")"</f>
+        <v>(0, 0, 0, 0, 0, 0, 2, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113">
+        <v>100</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="7"/>
+        <v>(0, 0, 0, 0, 0, 0, 1, 0, 2, 0)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>100</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" ref="M114:M122" si="8">"("&amp;C114&amp;", "&amp;D114&amp;", "&amp;E114&amp;", "&amp;F114&amp;", "&amp;G114&amp;", "&amp;H114&amp;", "&amp;I114&amp;", "&amp;J114&amp;", "&amp;K114&amp;", "&amp;L114&amp;")"</f>
+        <v>(0, 0, 0, 0, 0, 0, 0, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="8"/>
+        <v>(0, 0, 0, 0, 0, 0, 2, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116">
+        <v>100</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="8"/>
+        <v>(0, 0, 0, 0, 0, 0, 1, 0, 1, 0)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117">
+        <v>34</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="8"/>
+        <v>(0, 0, 0, 0, 1, 0, 0, 0, 0, 0)</v>
+      </c>
+      <c r="N117" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118">
+        <v>34</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="8"/>
+        <v>(0, 0, 0, 0, 1, 0, 2, 0, 0, 0)</v>
+      </c>
+      <c r="N118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119">
+        <v>34</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="8"/>
+        <v>(0, 0, 0, 0, 1, 1, 0, 0, 0, 0)</v>
+      </c>
+      <c r="N119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120">
+        <v>34</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="8"/>
+        <v>(0, 0, 0, 0, 1, 1, 2, 0, 0, 0)</v>
+      </c>
+      <c r="N120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121">
+        <v>34</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="8"/>
+        <v>(1, 0, 0, 0, 1, 0, 2, 0, 0, 0)</v>
+      </c>
+      <c r="N121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+      <c r="B122">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="8"/>
+        <v>(1, 0, 0, 0, 1, 0, 0, 0, 0, 0)</v>
+      </c>
+      <c r="N122" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="str">
+        <f>"("&amp;C123&amp;", "&amp;D123&amp;", "&amp;E123&amp;", "&amp;F123&amp;", "&amp;G123&amp;", "&amp;H123&amp;", "&amp;I123&amp;", "&amp;J123&amp;", "&amp;K123&amp;", "&amp;L123&amp;")"</f>
+        <v>(1, 0, 0, 0, 1, 1, 2, 0, 0, 0)</v>
+      </c>
+      <c r="N123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>137</v>
+      </c>
+      <c r="B124">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" ref="M124" si="9">"("&amp;C124&amp;", "&amp;D124&amp;", "&amp;E124&amp;", "&amp;F124&amp;", "&amp;G124&amp;", "&amp;H124&amp;", "&amp;I124&amp;", "&amp;J124&amp;", "&amp;K124&amp;", "&amp;L124&amp;")"</f>
+        <v>(1, 0, 0, 0, 1, 1, 0, 0, 0, 0)</v>
+      </c>
+      <c r="N124" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M116" xr:uid="{CAFCC0C4-9669-4DBA-8739-5ECCF4F8348D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M113">
+      <sortCondition ref="B2:B113"/>
+      <sortCondition ref="C2:C113"/>
+      <sortCondition ref="F2:F113"/>
+      <sortCondition ref="H2:H113"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/calc_rules.xlsx
+++ b/calc_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\Joh\OasisLMF_branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6DAF0B-32C3-4FFF-B2C1-37F3D60D9F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7143A0-733F-4F6C-851D-9805BADEEA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
   <si>
     <t>desc</t>
   </si>
@@ -516,6 +516,18 @@
   </si>
   <si>
     <t>no deductible % loss with min and max deductible and limit % TIV</t>
+  </si>
+  <si>
+    <t>deductible % loss with min deductible and limit</t>
+  </si>
+  <si>
+    <t>deductible % loss with max deductible and limit</t>
+  </si>
+  <si>
+    <t>deductible % loss with min deductible and limit % TIV</t>
+  </si>
+  <si>
+    <t>deductible % loss with max deductible and limit % TIV</t>
   </si>
 </sst>
 </file>
@@ -1356,13 +1368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="A148" sqref="A148:M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1488,7 @@
         <v>(1, 0, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O2">
-        <f>COUNTIF($M$2:$M$147,M2)</f>
+        <f t="shared" ref="O2:O33" si="1">COUNTIF($M$2:$M$147,M2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1522,7 +1534,7 @@
         <v>(1, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O3">
-        <f>COUNTIF($M$2:$M$147,M3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1568,7 +1580,7 @@
         <v>(0, 0, 0, 1, 1, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O4">
-        <f>COUNTIF($M$2:$M$147,M4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1614,7 +1626,7 @@
         <v>(0, 0, 0, 1, 1, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O5">
-        <f>COUNTIF($M$2:$M$147,M5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1660,7 +1672,7 @@
         <v>(0, 0, 0, 1, 1, 1, 0, 0, 0, 0)</v>
       </c>
       <c r="O6">
-        <f>COUNTIF($M$2:$M$147,M6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1706,7 +1718,7 @@
         <v>(0, 0, 0, 1, 1, 1, 2, 0, 0, 0)</v>
       </c>
       <c r="O7">
-        <f>COUNTIF($M$2:$M$147,M7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1752,7 +1764,7 @@
         <v>(1, 0, 0, 1, 1, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O8">
-        <f>COUNTIF($M$2:$M$147,M8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1798,7 +1810,7 @@
         <v>(1, 0, 0, 1, 1, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O9">
-        <f>COUNTIF($M$2:$M$147,M9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1844,7 +1856,7 @@
         <v>(1, 0, 0, 1, 1, 1, 2, 0, 0, 0)</v>
       </c>
       <c r="O10">
-        <f>COUNTIF($M$2:$M$147,M10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1890,7 +1902,7 @@
         <v>(1, 0, 0, 1, 1, 1, 0, 0, 0, 0)</v>
       </c>
       <c r="O11">
-        <f>COUNTIF($M$2:$M$147,M11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1936,7 +1948,7 @@
         <v>(1, 0, 0, 1, 0, 0, 0, 2, 0, 0)</v>
       </c>
       <c r="O12">
-        <f>COUNTIF($M$2:$M$147,M12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1978,11 +1990,11 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ref="M13:M14" si="1">"("&amp;C13&amp;", "&amp;D13&amp;", "&amp;E13&amp;", "&amp;F13&amp;", "&amp;G13&amp;", "&amp;H13&amp;", "&amp;I13&amp;", "&amp;J13&amp;", "&amp;K13&amp;", "&amp;L13&amp;")"</f>
+        <f t="shared" ref="M13:M14" si="2">"("&amp;C13&amp;", "&amp;D13&amp;", "&amp;E13&amp;", "&amp;F13&amp;", "&amp;G13&amp;", "&amp;H13&amp;", "&amp;I13&amp;", "&amp;J13&amp;", "&amp;K13&amp;", "&amp;L13&amp;")"</f>
         <v>(1, 0, 0, 1, 0, 0, 2, 2, 0, 0)</v>
       </c>
       <c r="O13">
-        <f>COUNTIF($M$2:$M$147,M13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2024,11 +2036,11 @@
         <v>0</v>
       </c>
       <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>(1, 0, 0, 1, 0, 0, 0, 2, 2, 0)</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="1"/>
-        <v>(1, 0, 0, 1, 0, 0, 0, 2, 2, 0)</v>
-      </c>
-      <c r="O14">
-        <f>COUNTIF($M$2:$M$147,M14)</f>
         <v>1</v>
       </c>
     </row>
@@ -2074,7 +2086,7 @@
         <v>(1, 0, 0, 1, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O15">
-        <f>COUNTIF($M$2:$M$147,M15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2132,7 @@
         <v>(0, 0, 1, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O16">
-        <f>COUNTIF($M$2:$M$147,M16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2178,7 @@
         <v>(0, 0, 1, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O17">
-        <f>COUNTIF($M$2:$M$147,M17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2212,7 +2224,7 @@
         <v>(0, 0, 1, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O18">
-        <f>COUNTIF($M$2:$M$147,M18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2254,11 +2266,11 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ref="M19:M23" si="2">"("&amp;C19&amp;", "&amp;D19&amp;", "&amp;E19&amp;", "&amp;F19&amp;", "&amp;G19&amp;", "&amp;H19&amp;", "&amp;I19&amp;", "&amp;J19&amp;", "&amp;K19&amp;", "&amp;L19&amp;")"</f>
+        <f t="shared" ref="M19:M23" si="3">"("&amp;C19&amp;", "&amp;D19&amp;", "&amp;E19&amp;", "&amp;F19&amp;", "&amp;G19&amp;", "&amp;H19&amp;", "&amp;I19&amp;", "&amp;J19&amp;", "&amp;K19&amp;", "&amp;L19&amp;")"</f>
         <v>(0, 0, 1, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O19">
-        <f>COUNTIF($M$2:$M$147,M19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2300,11 +2312,11 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>(0, 0, 1, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O20">
-        <f>COUNTIF($M$2:$M$147,M20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2346,11 +2358,11 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>(0, 0, 1, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O21">
-        <f>COUNTIF($M$2:$M$147,M21)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2392,14 +2404,14 @@
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>(1, 0, 1, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="N22" t="s">
         <v>101</v>
       </c>
       <c r="O22">
-        <f>COUNTIF($M$2:$M$147,M22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2441,14 +2453,14 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>(1, 0, 1, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="N23" t="s">
         <v>101</v>
       </c>
       <c r="O23">
-        <f>COUNTIF($M$2:$M$147,M23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2490,14 +2502,14 @@
         <v>0</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ref="M24:M27" si="3">"("&amp;C24&amp;", "&amp;D24&amp;", "&amp;E24&amp;", "&amp;F24&amp;", "&amp;G24&amp;", "&amp;H24&amp;", "&amp;I24&amp;", "&amp;J24&amp;", "&amp;K24&amp;", "&amp;L24&amp;")"</f>
+        <f t="shared" ref="M24:M27" si="4">"("&amp;C24&amp;", "&amp;D24&amp;", "&amp;E24&amp;", "&amp;F24&amp;", "&amp;G24&amp;", "&amp;H24&amp;", "&amp;I24&amp;", "&amp;J24&amp;", "&amp;K24&amp;", "&amp;L24&amp;")"</f>
         <v>(1, 0, 1, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="N24" t="s">
         <v>101</v>
       </c>
       <c r="O24">
-        <f>COUNTIF($M$2:$M$147,M24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2539,14 +2551,14 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>(1, 0, 1, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="N25" t="s">
         <v>101</v>
       </c>
       <c r="O25">
-        <f>COUNTIF($M$2:$M$147,M25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2588,14 +2600,14 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>(1, 1, 1, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="N26" t="s">
         <v>101</v>
       </c>
       <c r="O26">
-        <f>COUNTIF($M$2:$M$147,M26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2637,14 +2649,14 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>(1, 1, 1, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="N27" t="s">
         <v>101</v>
       </c>
       <c r="O27">
-        <f>COUNTIF($M$2:$M$147,M27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2686,14 +2698,14 @@
         <v>0</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ref="M28:M33" si="4">"("&amp;C28&amp;", "&amp;D28&amp;", "&amp;E28&amp;", "&amp;F28&amp;", "&amp;G28&amp;", "&amp;H28&amp;", "&amp;I28&amp;", "&amp;J28&amp;", "&amp;K28&amp;", "&amp;L28&amp;")"</f>
+        <f t="shared" ref="M28:M33" si="5">"("&amp;C28&amp;", "&amp;D28&amp;", "&amp;E28&amp;", "&amp;F28&amp;", "&amp;G28&amp;", "&amp;H28&amp;", "&amp;I28&amp;", "&amp;J28&amp;", "&amp;K28&amp;", "&amp;L28&amp;")"</f>
         <v>(1, 1, 1, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="N28" t="s">
         <v>101</v>
       </c>
       <c r="O28">
-        <f>COUNTIF($M$2:$M$147,M28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2735,14 +2747,14 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>(1, 1, 1, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="N29" t="s">
         <v>101</v>
       </c>
       <c r="O29">
-        <f>COUNTIF($M$2:$M$147,M29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2784,14 +2796,14 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>(0, 1, 1, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="N30" t="s">
         <v>101</v>
       </c>
       <c r="O30">
-        <f>COUNTIF($M$2:$M$147,M30)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2833,14 +2845,14 @@
         <v>0</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>(0, 1, 1, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="N31" t="s">
         <v>101</v>
       </c>
       <c r="O31">
-        <f>COUNTIF($M$2:$M$147,M31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2882,14 +2894,14 @@
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>(0, 1, 1, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="N32" t="s">
         <v>101</v>
       </c>
       <c r="O32">
-        <f>COUNTIF($M$2:$M$147,M32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2931,14 +2943,14 @@
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>(0, 1, 1, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="N33" t="s">
         <v>101</v>
       </c>
       <c r="O33">
-        <f>COUNTIF($M$2:$M$147,M33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2984,7 +2996,7 @@
         <v>(0, 1, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O34">
-        <f>COUNTIF($M$2:$M$147,M34)</f>
+        <f t="shared" ref="O34:O65" si="6">COUNTIF($M$2:$M$147,M34)</f>
         <v>1</v>
       </c>
     </row>
@@ -3030,7 +3042,7 @@
         <v>(0, 1, 0, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O35">
-        <f>COUNTIF($M$2:$M$147,M35)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3076,7 +3088,7 @@
         <v>(0, 1, 0, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O36">
-        <f>COUNTIF($M$2:$M$147,M36)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3122,7 +3134,7 @@
         <v>(0, 1, 0, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O37">
-        <f>COUNTIF($M$2:$M$147,M37)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3168,7 +3180,7 @@
         <v>(0, 1, 0, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O38">
-        <f>COUNTIF($M$2:$M$147,M38)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3214,7 +3226,7 @@
         <v>(0, 1, 0, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O39">
-        <f>COUNTIF($M$2:$M$147,M39)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3256,11 +3268,11 @@
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" ref="M40:M43" si="5">"("&amp;C40&amp;", "&amp;D40&amp;", "&amp;E40&amp;", "&amp;F40&amp;", "&amp;G40&amp;", "&amp;H40&amp;", "&amp;I40&amp;", "&amp;J40&amp;", "&amp;K40&amp;", "&amp;L40&amp;")"</f>
+        <f t="shared" ref="M40:M43" si="7">"("&amp;C40&amp;", "&amp;D40&amp;", "&amp;E40&amp;", "&amp;F40&amp;", "&amp;G40&amp;", "&amp;H40&amp;", "&amp;I40&amp;", "&amp;J40&amp;", "&amp;K40&amp;", "&amp;L40&amp;")"</f>
         <v>(1, 1, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O40">
-        <f>COUNTIF($M$2:$M$147,M40)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3302,11 +3314,11 @@
         <v>0</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>(1, 1, 0, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O41">
-        <f>COUNTIF($M$2:$M$147,M41)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3348,11 +3360,11 @@
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>(1, 1, 0, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O42">
-        <f>COUNTIF($M$2:$M$147,M42)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3394,11 +3406,11 @@
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>(1, 1, 0, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O43">
-        <f>COUNTIF($M$2:$M$147,M43)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3444,7 +3456,7 @@
         <v>(0, 0, 1, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O44">
-        <f>COUNTIF($M$2:$M$147,M44)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3490,7 +3502,7 @@
         <v>(0, 0, 1, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O45">
-        <f>COUNTIF($M$2:$M$147,M45)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3536,7 +3548,7 @@
         <v>(0, 0, 1, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O46">
-        <f>COUNTIF($M$2:$M$147,M46)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3578,14 +3590,14 @@
         <v>0</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" ref="M47:M49" si="6">"("&amp;C47&amp;", "&amp;D47&amp;", "&amp;E47&amp;", "&amp;F47&amp;", "&amp;G47&amp;", "&amp;H47&amp;", "&amp;I47&amp;", "&amp;J47&amp;", "&amp;K47&amp;", "&amp;L47&amp;")"</f>
+        <f t="shared" ref="M47:M49" si="8">"("&amp;C47&amp;", "&amp;D47&amp;", "&amp;E47&amp;", "&amp;F47&amp;", "&amp;G47&amp;", "&amp;H47&amp;", "&amp;I47&amp;", "&amp;J47&amp;", "&amp;K47&amp;", "&amp;L47&amp;")"</f>
         <v>(1, 0, 1, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="N47" t="s">
         <v>101</v>
       </c>
       <c r="O47">
-        <f>COUNTIF($M$2:$M$147,M47)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3627,14 +3639,14 @@
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>(1, 0, 1, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="N48" t="s">
         <v>101</v>
       </c>
       <c r="O48">
-        <f>COUNTIF($M$2:$M$147,M48)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3676,14 +3688,14 @@
         <v>0</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>(1, 0, 1, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="N49" t="s">
         <v>101</v>
       </c>
       <c r="O49">
-        <f>COUNTIF($M$2:$M$147,M49)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3729,7 +3741,7 @@
         <v>(0, 0, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O50">
-        <f>COUNTIF($M$2:$M$147,M50)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3775,7 +3787,7 @@
         <v>(0, 0, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O51">
-        <f>COUNTIF($M$2:$M$147,M51)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +3833,7 @@
         <v>(0, 0, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O52">
-        <f>COUNTIF($M$2:$M$147,M52)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3867,7 +3879,7 @@
         <v>(0, 0, 1, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O53">
-        <f>COUNTIF($M$2:$M$147,M53)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3913,7 +3925,7 @@
         <v>(0, 0, 1, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O54">
-        <f>COUNTIF($M$2:$M$147,M54)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3959,7 +3971,7 @@
         <v>(0, 0, 1, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O55">
-        <f>COUNTIF($M$2:$M$147,M55)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4001,14 +4013,14 @@
         <v>0</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" ref="M56:M58" si="7">"("&amp;C56&amp;", "&amp;D56&amp;", "&amp;E56&amp;", "&amp;F56&amp;", "&amp;G56&amp;", "&amp;H56&amp;", "&amp;I56&amp;", "&amp;J56&amp;", "&amp;K56&amp;", "&amp;L56&amp;")"</f>
+        <f t="shared" ref="M56:M58" si="9">"("&amp;C56&amp;", "&amp;D56&amp;", "&amp;E56&amp;", "&amp;F56&amp;", "&amp;G56&amp;", "&amp;H56&amp;", "&amp;I56&amp;", "&amp;J56&amp;", "&amp;K56&amp;", "&amp;L56&amp;")"</f>
         <v>(1, 0, 1, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="N56" t="s">
         <v>101</v>
       </c>
       <c r="O56">
-        <f>COUNTIF($M$2:$M$147,M56)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4050,14 +4062,14 @@
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>(1, 0, 1, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="N57" t="s">
         <v>101</v>
       </c>
       <c r="O57">
-        <f>COUNTIF($M$2:$M$147,M57)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4099,14 +4111,14 @@
         <v>0</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>(1, 0, 1, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="N58" t="s">
         <v>101</v>
       </c>
       <c r="O58">
-        <f>COUNTIF($M$2:$M$147,M58)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4152,7 +4164,7 @@
         <v>(0, 1, 0, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O59">
-        <f>COUNTIF($M$2:$M$147,M59)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4198,7 +4210,7 @@
         <v>(0, 1, 0, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O60">
-        <f>COUNTIF($M$2:$M$147,M60)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4240,11 +4252,11 @@
         <v>0</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" ref="M61:M100" si="8">"("&amp;C61&amp;", "&amp;D61&amp;", "&amp;E61&amp;", "&amp;F61&amp;", "&amp;G61&amp;", "&amp;H61&amp;", "&amp;I61&amp;", "&amp;J61&amp;", "&amp;K61&amp;", "&amp;L61&amp;")"</f>
+        <f t="shared" ref="M61:M100" si="10">"("&amp;C61&amp;", "&amp;D61&amp;", "&amp;E61&amp;", "&amp;F61&amp;", "&amp;G61&amp;", "&amp;H61&amp;", "&amp;I61&amp;", "&amp;J61&amp;", "&amp;K61&amp;", "&amp;L61&amp;")"</f>
         <v>(0, 1, 0, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O61">
-        <f>COUNTIF($M$2:$M$147,M61)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4286,11 +4298,11 @@
         <v>0</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 1, 0, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O62">
-        <f>COUNTIF($M$2:$M$147,M62)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4332,11 +4344,11 @@
         <v>0</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 1, 0, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O63">
-        <f>COUNTIF($M$2:$M$147,M63)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4378,11 +4390,11 @@
         <v>0</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" ref="M64" si="9">"("&amp;C64&amp;", "&amp;D64&amp;", "&amp;E64&amp;", "&amp;F64&amp;", "&amp;G64&amp;", "&amp;H64&amp;", "&amp;I64&amp;", "&amp;J64&amp;", "&amp;K64&amp;", "&amp;L64&amp;")"</f>
+        <f t="shared" ref="M64" si="11">"("&amp;C64&amp;", "&amp;D64&amp;", "&amp;E64&amp;", "&amp;F64&amp;", "&amp;G64&amp;", "&amp;H64&amp;", "&amp;I64&amp;", "&amp;J64&amp;", "&amp;K64&amp;", "&amp;L64&amp;")"</f>
         <v>(1, 1, 0, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O64">
-        <f>COUNTIF($M$2:$M$147,M64)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4424,11 +4436,11 @@
         <v>0</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O65">
-        <f>COUNTIF($M$2:$M$147,M65)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4470,11 +4482,11 @@
         <v>0</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O66">
-        <f>COUNTIF($M$2:$M$147,M66)</f>
+        <f t="shared" ref="O66:O97" si="12">COUNTIF($M$2:$M$147,M66)</f>
         <v>1</v>
       </c>
     </row>
@@ -4516,11 +4528,11 @@
         <v>0</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O67">
-        <f>COUNTIF($M$2:$M$147,M67)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4562,11 +4574,11 @@
         <v>0</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 0, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O68">
-        <f>COUNTIF($M$2:$M$147,M68)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4608,11 +4620,11 @@
         <v>0</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 0, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O69">
-        <f>COUNTIF($M$2:$M$147,M69)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4654,11 +4666,11 @@
         <v>0</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 0, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O70">
-        <f>COUNTIF($M$2:$M$147,M70)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4700,11 +4712,11 @@
         <v>0</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" ref="M71:M73" si="10">"("&amp;C71&amp;", "&amp;D71&amp;", "&amp;E71&amp;", "&amp;F71&amp;", "&amp;G71&amp;", "&amp;H71&amp;", "&amp;I71&amp;", "&amp;J71&amp;", "&amp;K71&amp;", "&amp;L71&amp;")"</f>
+        <f t="shared" ref="M71:M73" si="13">"("&amp;C71&amp;", "&amp;D71&amp;", "&amp;E71&amp;", "&amp;F71&amp;", "&amp;G71&amp;", "&amp;H71&amp;", "&amp;I71&amp;", "&amp;J71&amp;", "&amp;K71&amp;", "&amp;L71&amp;")"</f>
         <v>(1, 1, 0, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O71">
-        <f>COUNTIF($M$2:$M$147,M71)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4746,11 +4758,11 @@
         <v>0</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>(1, 1, 0, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O72">
-        <f>COUNTIF($M$2:$M$147,M72)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4792,11 +4804,11 @@
         <v>0</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>(1, 1, 0, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O73">
-        <f>COUNTIF($M$2:$M$147,M73)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4838,11 +4850,11 @@
         <v>0</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O74">
-        <f>COUNTIF($M$2:$M$147,M74)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4884,11 +4896,11 @@
         <v>0</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O75">
-        <f>COUNTIF($M$2:$M$147,M75)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4930,11 +4942,11 @@
         <v>0</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O76">
-        <f>COUNTIF($M$2:$M$147,M76)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4976,11 +4988,11 @@
         <v>0</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O77">
-        <f>COUNTIF($M$2:$M$147,M77)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5022,11 +5034,11 @@
         <v>0</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O78">
-        <f>COUNTIF($M$2:$M$147,M78)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5068,11 +5080,11 @@
         <v>0</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O79">
-        <f>COUNTIF($M$2:$M$147,M79)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5114,11 +5126,11 @@
         <v>0</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O80">
-        <f>COUNTIF($M$2:$M$147,M80)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5160,11 +5172,11 @@
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O81">
-        <f>COUNTIF($M$2:$M$147,M81)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5206,11 +5218,11 @@
         <v>0</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O82">
-        <f>COUNTIF($M$2:$M$147,M82)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5252,11 +5264,11 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O83">
-        <f>COUNTIF($M$2:$M$147,M83)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5298,11 +5310,11 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O84">
-        <f>COUNTIF($M$2:$M$147,M84)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5344,11 +5356,11 @@
         <v>0</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O85">
-        <f>COUNTIF($M$2:$M$147,M85)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5390,11 +5402,11 @@
         <v>0</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O86">
-        <f>COUNTIF($M$2:$M$147,M86)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5436,11 +5448,11 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O87">
-        <f>COUNTIF($M$2:$M$147,M87)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5482,11 +5494,11 @@
         <v>0</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 1, 1, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O88">
-        <f>COUNTIF($M$2:$M$147,M88)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5528,11 +5540,11 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O89">
-        <f>COUNTIF($M$2:$M$147,M89)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5574,11 +5586,11 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O90">
-        <f>COUNTIF($M$2:$M$147,M90)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5620,11 +5632,11 @@
         <v>0</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O91">
-        <f>COUNTIF($M$2:$M$147,M91)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5666,11 +5678,11 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O92">
-        <f>COUNTIF($M$2:$M$147,M92)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5712,11 +5724,11 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O93">
-        <f>COUNTIF($M$2:$M$147,M93)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5758,11 +5770,11 @@
         <v>0</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O94">
-        <f>COUNTIF($M$2:$M$147,M94)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5804,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O95">
-        <f>COUNTIF($M$2:$M$147,M95)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5850,11 +5862,11 @@
         <v>0</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O96">
-        <f>COUNTIF($M$2:$M$147,M96)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5896,11 +5908,11 @@
         <v>0</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(0, 0, 0, 1, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O97">
-        <f>COUNTIF($M$2:$M$147,M97)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5942,14 +5954,14 @@
         <v>0</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" ref="M98:M99" si="11">"("&amp;C98&amp;", "&amp;D98&amp;", "&amp;E98&amp;", "&amp;F98&amp;", "&amp;G98&amp;", "&amp;H98&amp;", "&amp;I98&amp;", "&amp;J98&amp;", "&amp;K98&amp;", "&amp;L98&amp;")"</f>
+        <f t="shared" ref="M98:M99" si="14">"("&amp;C98&amp;", "&amp;D98&amp;", "&amp;E98&amp;", "&amp;F98&amp;", "&amp;G98&amp;", "&amp;H98&amp;", "&amp;I98&amp;", "&amp;J98&amp;", "&amp;K98&amp;", "&amp;L98&amp;")"</f>
         <v>(1, 0, 0, 1, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="N98" t="s">
         <v>101</v>
       </c>
       <c r="O98">
-        <f>COUNTIF($M$2:$M$147,M98)</f>
+        <f t="shared" ref="O98:O129" si="15">COUNTIF($M$2:$M$147,M98)</f>
         <v>1</v>
       </c>
     </row>
@@ -5991,14 +6003,14 @@
         <v>0</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>(1, 0, 0, 1, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="N99" t="s">
         <v>101</v>
       </c>
       <c r="O99">
-        <f>COUNTIF($M$2:$M$147,M99)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6040,11 +6052,11 @@
         <v>0</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>(1, 0, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O100">
-        <f>COUNTIF($M$2:$M$147,M100)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6086,11 +6098,11 @@
         <v>0</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" ref="M101:M130" si="12">"("&amp;C101&amp;", "&amp;D101&amp;", "&amp;E101&amp;", "&amp;F101&amp;", "&amp;G101&amp;", "&amp;H101&amp;", "&amp;I101&amp;", "&amp;J101&amp;", "&amp;K101&amp;", "&amp;L101&amp;")"</f>
+        <f t="shared" ref="M101:M130" si="16">"("&amp;C101&amp;", "&amp;D101&amp;", "&amp;E101&amp;", "&amp;F101&amp;", "&amp;G101&amp;", "&amp;H101&amp;", "&amp;I101&amp;", "&amp;J101&amp;", "&amp;K101&amp;", "&amp;L101&amp;")"</f>
         <v>(1, 0, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O101">
-        <f>COUNTIF($M$2:$M$147,M101)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6132,11 +6144,11 @@
         <v>0</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O102">
-        <f>COUNTIF($M$2:$M$147,M102)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6178,11 +6190,11 @@
         <v>0</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 1, 1, 1, 1, 0, 0, 0)</v>
       </c>
       <c r="O103">
-        <f>COUNTIF($M$2:$M$147,M103)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6224,11 +6236,11 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 1, 1, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O104">
-        <f>COUNTIF($M$2:$M$147,M104)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6270,11 +6282,11 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 1, 1, 1, 1, 0, 2, 0)</v>
       </c>
       <c r="O105">
-        <f>COUNTIF($M$2:$M$147,M105)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6316,11 +6328,11 @@
         <v>0</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 1, 1, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O106">
-        <f>COUNTIF($M$2:$M$147,M106)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6362,11 +6374,11 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O107">
-        <f>COUNTIF($M$2:$M$147,M107)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6408,14 +6420,14 @@
         <v>0</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" ref="M108" si="13">"("&amp;C108&amp;", "&amp;D108&amp;", "&amp;E108&amp;", "&amp;F108&amp;", "&amp;G108&amp;", "&amp;H108&amp;", "&amp;I108&amp;", "&amp;J108&amp;", "&amp;K108&amp;", "&amp;L108&amp;")"</f>
+        <f t="shared" ref="M108" si="17">"("&amp;C108&amp;", "&amp;D108&amp;", "&amp;E108&amp;", "&amp;F108&amp;", "&amp;G108&amp;", "&amp;H108&amp;", "&amp;I108&amp;", "&amp;J108&amp;", "&amp;K108&amp;", "&amp;L108&amp;")"</f>
         <v>(1, 0, 0, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="N108" t="s">
         <v>101</v>
       </c>
       <c r="O108">
-        <f>COUNTIF($M$2:$M$147,M108)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6457,11 +6469,11 @@
         <v>0</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O109">
-        <f>COUNTIF($M$2:$M$147,M109)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6503,11 +6515,11 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O110">
-        <f>COUNTIF($M$2:$M$147,M110)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6549,11 +6561,11 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O111">
-        <f>COUNTIF($M$2:$M$147,M111)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6595,11 +6607,11 @@
         <v>0</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 1, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O112">
-        <f>COUNTIF($M$2:$M$147,M112)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6641,11 +6653,11 @@
         <v>0</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 1, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O113">
-        <f>COUNTIF($M$2:$M$147,M113)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6687,11 +6699,11 @@
         <v>0</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 1, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O114">
-        <f>COUNTIF($M$2:$M$147,M114)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6733,11 +6745,11 @@
         <v>0</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" ref="M115:M117" si="14">"("&amp;C115&amp;", "&amp;D115&amp;", "&amp;E115&amp;", "&amp;F115&amp;", "&amp;G115&amp;", "&amp;H115&amp;", "&amp;I115&amp;", "&amp;J115&amp;", "&amp;K115&amp;", "&amp;L115&amp;")"</f>
+        <f t="shared" ref="M115:M117" si="18">"("&amp;C115&amp;", "&amp;D115&amp;", "&amp;E115&amp;", "&amp;F115&amp;", "&amp;G115&amp;", "&amp;H115&amp;", "&amp;I115&amp;", "&amp;J115&amp;", "&amp;K115&amp;", "&amp;L115&amp;")"</f>
         <v>(1, 1, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O115">
-        <f>COUNTIF($M$2:$M$147,M115)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6779,11 +6791,11 @@
         <v>0</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>(1, 1, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O116">
-        <f>COUNTIF($M$2:$M$147,M116)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6825,11 +6837,11 @@
         <v>0</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>(1, 1, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O117">
-        <f>COUNTIF($M$2:$M$147,M117)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6871,11 +6883,11 @@
         <v>0</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 0, 0, 0, 0, 99, 0, 0)</v>
       </c>
       <c r="O118">
-        <f>COUNTIF($M$2:$M$147,M118)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6917,11 +6929,11 @@
         <v>0</v>
       </c>
       <c r="M119" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 0, 0, 0, 0, 99, 1, 0)</v>
       </c>
       <c r="O119">
-        <f>COUNTIF($M$2:$M$147,M119)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6963,11 +6975,11 @@
         <v>0</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 0, 0, 0, 0, 0, 0, 99, 2, 0)</v>
       </c>
       <c r="O120">
-        <f>COUNTIF($M$2:$M$147,M120)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7009,11 +7021,11 @@
         <v>0</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O121">
-        <f>COUNTIF($M$2:$M$147,M121)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7055,11 +7067,11 @@
         <v>0</v>
       </c>
       <c r="M122" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O122">
-        <f>COUNTIF($M$2:$M$147,M122)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7101,11 +7113,11 @@
         <v>0</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O123">
-        <f>COUNTIF($M$2:$M$147,M123)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7147,11 +7159,11 @@
         <v>0</v>
       </c>
       <c r="M124" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O124">
-        <f>COUNTIF($M$2:$M$147,M124)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7193,11 +7205,11 @@
         <v>0</v>
       </c>
       <c r="M125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O125">
-        <f>COUNTIF($M$2:$M$147,M125)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7239,11 +7251,11 @@
         <v>0</v>
       </c>
       <c r="M126" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(1, 1, 1, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O126">
-        <f>COUNTIF($M$2:$M$147,M126)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7285,11 +7297,11 @@
         <v>0</v>
       </c>
       <c r="M127" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(0, 0, 0, 0, 0, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="O127">
-        <f>COUNTIF($M$2:$M$147,M127)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7331,11 +7343,11 @@
         <v>0</v>
       </c>
       <c r="M128" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(0, 0, 0, 0, 0, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="O128">
-        <f>COUNTIF($M$2:$M$147,M128)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7377,11 +7389,11 @@
         <v>0</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(0, 0, 0, 0, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="O129">
-        <f>COUNTIF($M$2:$M$147,M129)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7423,11 +7435,11 @@
         <v>0</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>(0, 0, 0, 0, 0, 0, 0, 0, 2, 0)</v>
       </c>
       <c r="O130">
-        <f>COUNTIF($M$2:$M$147,M130)</f>
+        <f t="shared" ref="O130:O147" si="19">COUNTIF($M$2:$M$147,M130)</f>
         <v>1</v>
       </c>
     </row>
@@ -7469,11 +7481,11 @@
         <v>0</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M132" si="15">"("&amp;C131&amp;", "&amp;D131&amp;", "&amp;E131&amp;", "&amp;F131&amp;", "&amp;G131&amp;", "&amp;H131&amp;", "&amp;I131&amp;", "&amp;J131&amp;", "&amp;K131&amp;", "&amp;L131&amp;")"</f>
+        <f t="shared" ref="M131:M132" si="20">"("&amp;C131&amp;", "&amp;D131&amp;", "&amp;E131&amp;", "&amp;F131&amp;", "&amp;G131&amp;", "&amp;H131&amp;", "&amp;I131&amp;", "&amp;J131&amp;", "&amp;K131&amp;", "&amp;L131&amp;")"</f>
         <v>(0, 0, 0, 0, 0, 0, 2, 0, 2, 0)</v>
       </c>
       <c r="O131">
-        <f>COUNTIF($M$2:$M$147,M131)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7515,11 +7527,11 @@
         <v>0</v>
       </c>
       <c r="M132" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>(0, 0, 0, 0, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="O132">
-        <f>COUNTIF($M$2:$M$147,M132)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7561,11 +7573,11 @@
         <v>0</v>
       </c>
       <c r="M133" t="str">
-        <f t="shared" ref="M133:M141" si="16">"("&amp;C133&amp;", "&amp;D133&amp;", "&amp;E133&amp;", "&amp;F133&amp;", "&amp;G133&amp;", "&amp;H133&amp;", "&amp;I133&amp;", "&amp;J133&amp;", "&amp;K133&amp;", "&amp;L133&amp;")"</f>
+        <f t="shared" ref="M133:M141" si="21">"("&amp;C133&amp;", "&amp;D133&amp;", "&amp;E133&amp;", "&amp;F133&amp;", "&amp;G133&amp;", "&amp;H133&amp;", "&amp;I133&amp;", "&amp;J133&amp;", "&amp;K133&amp;", "&amp;L133&amp;")"</f>
         <v>(0, 0, 0, 0, 0, 0, 0, 0, 1, 0)</v>
       </c>
       <c r="O133">
-        <f>COUNTIF($M$2:$M$147,M133)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7607,11 +7619,11 @@
         <v>0</v>
       </c>
       <c r="M134" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(0, 0, 0, 0, 0, 0, 2, 0, 1, 0)</v>
       </c>
       <c r="O134">
-        <f>COUNTIF($M$2:$M$147,M134)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7653,11 +7665,11 @@
         <v>0</v>
       </c>
       <c r="M135" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(0, 0, 0, 0, 0, 0, 1, 0, 1, 0)</v>
       </c>
       <c r="O135">
-        <f>COUNTIF($M$2:$M$147,M135)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7699,14 +7711,14 @@
         <v>0</v>
       </c>
       <c r="M136" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(0, 0, 0, 0, 1, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="N136" t="s">
         <v>101</v>
       </c>
       <c r="O136">
-        <f>COUNTIF($M$2:$M$147,M136)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7748,14 +7760,14 @@
         <v>0</v>
       </c>
       <c r="M137" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(0, 0, 0, 0, 1, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="N137" t="s">
         <v>101</v>
       </c>
       <c r="O137">
-        <f>COUNTIF($M$2:$M$147,M137)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7797,14 +7809,14 @@
         <v>0</v>
       </c>
       <c r="M138" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(0, 0, 0, 0, 1, 1, 0, 0, 0, 0)</v>
       </c>
       <c r="N138" t="s">
         <v>101</v>
       </c>
       <c r="O138">
-        <f>COUNTIF($M$2:$M$147,M138)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7846,14 +7858,14 @@
         <v>0</v>
       </c>
       <c r="M139" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(0, 0, 0, 0, 1, 1, 2, 0, 0, 0)</v>
       </c>
       <c r="N139" t="s">
         <v>101</v>
       </c>
       <c r="O139">
-        <f>COUNTIF($M$2:$M$147,M139)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7895,14 +7907,14 @@
         <v>0</v>
       </c>
       <c r="M140" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(1, 0, 0, 0, 1, 0, 2, 0, 0, 0)</v>
       </c>
       <c r="N140" t="s">
         <v>101</v>
       </c>
       <c r="O140">
-        <f>COUNTIF($M$2:$M$147,M140)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -7944,14 +7956,14 @@
         <v>0</v>
       </c>
       <c r="M141" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>(1, 0, 0, 0, 1, 0, 0, 0, 0, 0)</v>
       </c>
       <c r="N141" t="s">
         <v>101</v>
       </c>
       <c r="O141">
-        <f>COUNTIF($M$2:$M$147,M141)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8000,7 +8012,7 @@
         <v>101</v>
       </c>
       <c r="O142">
-        <f>COUNTIF($M$2:$M$147,M142)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8042,14 +8054,14 @@
         <v>0</v>
       </c>
       <c r="M143" t="str">
-        <f t="shared" ref="M143:M147" si="17">"("&amp;C143&amp;", "&amp;D143&amp;", "&amp;E143&amp;", "&amp;F143&amp;", "&amp;G143&amp;", "&amp;H143&amp;", "&amp;I143&amp;", "&amp;J143&amp;", "&amp;K143&amp;", "&amp;L143&amp;")"</f>
+        <f t="shared" ref="M143:M147" si="22">"("&amp;C143&amp;", "&amp;D143&amp;", "&amp;E143&amp;", "&amp;F143&amp;", "&amp;G143&amp;", "&amp;H143&amp;", "&amp;I143&amp;", "&amp;J143&amp;", "&amp;K143&amp;", "&amp;L143&amp;")"</f>
         <v>(1, 0, 0, 0, 1, 1, 0, 0, 0, 0)</v>
       </c>
       <c r="N143" t="s">
         <v>101</v>
       </c>
       <c r="O143">
-        <f>COUNTIF($M$2:$M$147,M143)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8091,14 +8103,14 @@
         <v>0</v>
       </c>
       <c r="M144" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>(1, 1, 1, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="N144" t="s">
         <v>101</v>
       </c>
       <c r="O144">
-        <f>COUNTIF($M$2:$M$147,M144)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8140,14 +8152,14 @@
         <v>0</v>
       </c>
       <c r="M145" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>(0, 1, 1, 1, 0, 0, 1, 0, 0, 0)</v>
       </c>
       <c r="N145" t="s">
         <v>101</v>
       </c>
       <c r="O145">
-        <f>COUNTIF($M$2:$M$147,M145)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8189,14 +8201,14 @@
         <v>0</v>
       </c>
       <c r="M146" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>(1, 1, 1, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="N146" t="s">
         <v>101</v>
       </c>
       <c r="O146">
-        <f>COUNTIF($M$2:$M$147,M146)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -8238,14 +8250,210 @@
         <v>0</v>
       </c>
       <c r="M147" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>(0, 1, 1, 1, 0, 0, 1, 0, 2, 0)</v>
       </c>
       <c r="N147" t="s">
         <v>101</v>
       </c>
       <c r="O147">
-        <f>COUNTIF($M$2:$M$147,M147)</f>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148">
+        <v>35</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" ref="M148:M163" si="23">"("&amp;C148&amp;", "&amp;D148&amp;", "&amp;E148&amp;", "&amp;F148&amp;", "&amp;G148&amp;", "&amp;H148&amp;", "&amp;I148&amp;", "&amp;J148&amp;", "&amp;K148&amp;", "&amp;L148&amp;")"</f>
+        <v>(1, 1, 0, 1, 0, 0, 1, 0, 0, 0)</v>
+      </c>
+      <c r="N148" t="s">
+        <v>101</v>
+      </c>
+      <c r="O148">
+        <f>COUNTIF($M$2:$M$163,M148)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>162</v>
+      </c>
+      <c r="B149">
+        <v>26</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="23"/>
+        <v>(1, 0, 1, 1, 0, 0, 1, 0, 0, 0)</v>
+      </c>
+      <c r="N149" t="s">
+        <v>101</v>
+      </c>
+      <c r="O149">
+        <f>COUNTIF($M$2:$M$163,M149)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>163</v>
+      </c>
+      <c r="B150">
+        <v>35</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" ref="M150:M151" si="24">"("&amp;C150&amp;", "&amp;D150&amp;", "&amp;E150&amp;", "&amp;F150&amp;", "&amp;G150&amp;", "&amp;H150&amp;", "&amp;I150&amp;", "&amp;J150&amp;", "&amp;K150&amp;", "&amp;L150&amp;")"</f>
+        <v>(1, 1, 0, 1, 0, 0, 1, 0, 2, 0)</v>
+      </c>
+      <c r="N150" t="s">
+        <v>101</v>
+      </c>
+      <c r="O150">
+        <f>COUNTIF($M$2:$M$163,M150)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151">
+        <v>26</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="24"/>
+        <v>(1, 0, 1, 1, 0, 0, 1, 0, 2, 0)</v>
+      </c>
+      <c r="N151" t="s">
+        <v>101</v>
+      </c>
+      <c r="O151">
+        <f>COUNTIF($M$2:$M$163,M151)</f>
         <v>1</v>
       </c>
     </row>
